--- a/Votes/November 2021 Votes.xlsx
+++ b/Votes/November 2021 Votes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/Votes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D6D8C-58C2-2049-9D76-BEA575E8E391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B263E142-C763-E848-94BE-BAF0B9D563D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="1040" windowWidth="36040" windowHeight="24160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11099" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11147" uniqueCount="330">
   <si>
     <t>Motion to hold a Virtual Town Meeting</t>
   </si>
@@ -1018,12 +1018,18 @@
   <si>
     <t>Night 4</t>
   </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1107,6 +1113,38 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1196,10 +1234,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1239,23 +1279,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{AA835E1F-91C8-F748-A4C7-3E7C35F4F54E}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{9F5631C4-BF88-274A-BA5F-1231E23FAFE8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1471,10 +1517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX997"/>
+  <dimension ref="A1:BR997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AG234" workbookViewId="0">
+      <selection activeCell="AX255" sqref="AX255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1505,64 +1551,64 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="25" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
     </row>
     <row r="3" spans="1:50" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
@@ -1748,21 +1794,21 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="19" t="s">
         <v>288</v>
       </c>
       <c r="W4" s="15"/>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="19" t="s">
         <v>291</v>
       </c>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="19" t="s">
         <v>292</v>
       </c>
       <c r="AC4" s="15"/>
@@ -1777,34 +1823,34 @@
         <v>301</v>
       </c>
       <c r="AJ4" s="15"/>
-      <c r="AK4" s="23" t="s">
+      <c r="AK4" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="AL4" s="23" t="s">
+      <c r="AL4" s="20" t="s">
         <v>317</v>
       </c>
       <c r="AM4" s="15"/>
-      <c r="AN4" s="23" t="s">
+      <c r="AN4" s="20" t="s">
         <v>318</v>
       </c>
       <c r="AO4" s="15"/>
       <c r="AP4" s="15"/>
-      <c r="AQ4" s="23" t="s">
+      <c r="AQ4" s="20" t="s">
         <v>319</v>
       </c>
       <c r="AR4" s="15"/>
-      <c r="AS4" s="23" t="s">
+      <c r="AS4" s="20" t="s">
         <v>320</v>
       </c>
       <c r="AT4" s="15"/>
-      <c r="AU4" s="23" t="s">
+      <c r="AU4" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="AV4" s="23" t="s">
+      <c r="AV4" s="20" t="s">
         <v>322</v>
       </c>
       <c r="AW4" s="15"/>
-      <c r="AX4" s="23" t="s">
+      <c r="AX4" s="20" t="s">
         <v>323</v>
       </c>
     </row>
@@ -35420,7 +35466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>16</v>
       </c>
@@ -35564,7 +35610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>16</v>
       </c>
@@ -35716,7 +35762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>16</v>
       </c>
@@ -35868,7 +35914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>16</v>
       </c>
@@ -35994,7 +36040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>16</v>
       </c>
@@ -36130,7 +36176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>268</v>
       </c>
@@ -36282,7 +36328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>268</v>
       </c>
@@ -36434,7 +36480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>268</v>
       </c>
@@ -36570,7 +36616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>268</v>
       </c>
@@ -36722,7 +36768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>268</v>
       </c>
@@ -36874,7 +36920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="251" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>268</v>
       </c>
@@ -37026,7 +37072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>268</v>
       </c>
@@ -37178,7 +37224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10" t="s">
         <v>268</v>
       </c>
@@ -37276,7 +37322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:70" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -37328,60 +37374,176 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2"/>
-      <c r="V255" s="2"/>
-      <c r="W255" s="2"/>
-      <c r="X255" s="2"/>
-      <c r="Y255" s="2"/>
-      <c r="Z255" s="2"/>
-      <c r="AA255" s="2"/>
-      <c r="AB255" s="2"/>
-      <c r="AC255" s="2"/>
-      <c r="AD255" s="2"/>
-      <c r="AE255" s="2"/>
-      <c r="AF255" s="2"/>
-      <c r="AG255" s="2"/>
-      <c r="AH255" s="2"/>
-      <c r="AI255" s="2"/>
-      <c r="AJ255" s="2"/>
-      <c r="AK255" s="2"/>
-      <c r="AL255" s="2"/>
-      <c r="AM255" s="2"/>
-      <c r="AN255" s="2"/>
-      <c r="AO255" s="2"/>
-      <c r="AP255" s="2"/>
-      <c r="AQ255" s="2"/>
-      <c r="AR255" s="2"/>
-      <c r="AS255" s="2"/>
-      <c r="AT255" s="2"/>
-      <c r="AU255" s="2"/>
-      <c r="AV255" s="2"/>
-      <c r="AW255" s="2"/>
-      <c r="AX255" s="2"/>
-    </row>
-    <row r="256" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="19" t="s">
+      <c r="C255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="H255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="I255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="J255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="L255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="M255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="N255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="O255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="P255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="R255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="S255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="T255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="U255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="V255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="W255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="X255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AS255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU255" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX255" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AY255" s="24"/>
+      <c r="AZ255" s="23"/>
+      <c r="BA255" s="24"/>
+      <c r="BB255" s="23"/>
+      <c r="BC255" s="23"/>
+      <c r="BD255" s="23"/>
+      <c r="BE255" s="25"/>
+      <c r="BF255" s="25"/>
+      <c r="BG255" s="25"/>
+      <c r="BH255" s="25"/>
+      <c r="BI255" s="25"/>
+      <c r="BJ255" s="23"/>
+      <c r="BK255" s="25"/>
+      <c r="BL255" s="23"/>
+      <c r="BM255" s="25"/>
+      <c r="BN255" s="26"/>
+      <c r="BO255" s="25"/>
+      <c r="BP255" s="25"/>
+      <c r="BQ255" s="25"/>
+      <c r="BR255" s="25"/>
+    </row>
+    <row r="256" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="27" t="s">
         <v>277</v>
       </c>
       <c r="B256" s="11" t="s">
@@ -37581,7 +37743,7 @@
       </c>
     </row>
     <row r="257" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="20"/>
+      <c r="A257" s="28"/>
       <c r="B257" s="13" t="s">
         <v>27</v>
       </c>
@@ -37779,7 +37941,7 @@
       </c>
     </row>
     <row r="258" spans="1:50" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="21"/>
+      <c r="A258" s="29"/>
       <c r="B258" s="14" t="s">
         <v>35</v>
       </c>
